--- a/Documentation/Liste Materiel.xlsx
+++ b/Documentation/Liste Materiel.xlsx
@@ -172,8 +172,9 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="6">
+  <cellXfs count="7">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
@@ -501,7 +502,7 @@
   <dimension ref="A1:E14"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D20" sqref="D20"/>
+      <selection activeCell="B3" sqref="B3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -528,19 +529,19 @@
       </c>
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A2" s="3" t="s">
+      <c r="A2" s="4" t="s">
         <v>20</v>
       </c>
-      <c r="B2" s="3"/>
-      <c r="C2" s="3"/>
-      <c r="D2" s="3"/>
-      <c r="E2" s="3"/>
+      <c r="B2" s="4"/>
+      <c r="C2" s="4"/>
+      <c r="D2" s="4"/>
+      <c r="E2" s="4"/>
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A3" t="s">
         <v>5</v>
       </c>
-      <c r="B3" s="2" t="s">
+      <c r="B3" s="3" t="s">
         <v>6</v>
       </c>
       <c r="C3" t="s">
@@ -557,7 +558,7 @@
       <c r="A4" t="s">
         <v>8</v>
       </c>
-      <c r="B4" s="1" t="s">
+      <c r="B4" s="2" t="s">
         <v>10</v>
       </c>
       <c r="C4" t="s">
@@ -574,7 +575,7 @@
       <c r="A5" t="s">
         <v>11</v>
       </c>
-      <c r="B5" s="1" t="s">
+      <c r="B5" s="2" t="s">
         <v>13</v>
       </c>
       <c r="C5" t="s">
@@ -591,7 +592,7 @@
       <c r="A6" t="s">
         <v>15</v>
       </c>
-      <c r="B6" s="1" t="s">
+      <c r="B6" s="2" t="s">
         <v>18</v>
       </c>
       <c r="C6" t="s">
@@ -608,7 +609,7 @@
       <c r="A7" t="s">
         <v>29</v>
       </c>
-      <c r="B7" s="1" t="s">
+      <c r="B7" s="2" t="s">
         <v>16</v>
       </c>
       <c r="C7" t="s">
@@ -622,48 +623,48 @@
       </c>
     </row>
     <row r="8" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A8" s="3" t="s">
+      <c r="A8" s="4" t="s">
         <v>24</v>
       </c>
-      <c r="B8" s="3"/>
-      <c r="C8" s="3"/>
-      <c r="D8" s="3"/>
-      <c r="E8" s="3"/>
+      <c r="B8" s="4"/>
+      <c r="C8" s="4"/>
+      <c r="D8" s="4"/>
+      <c r="E8" s="4"/>
     </row>
     <row r="9" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A9" s="1" t="s">
+      <c r="A9" s="2" t="s">
         <v>22</v>
       </c>
-      <c r="B9" s="1" t="s">
+      <c r="B9" s="2" t="s">
         <v>23</v>
       </c>
-      <c r="C9" s="4" t="s">
+      <c r="C9" s="5" t="s">
         <v>21</v>
       </c>
-      <c r="D9" s="4">
+      <c r="D9" s="5">
         <v>1</v>
       </c>
-      <c r="E9" s="4">
+      <c r="E9" s="5">
         <v>24.9</v>
       </c>
     </row>
     <row r="10" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A10" s="5" t="s">
+      <c r="A10" s="6" t="s">
         <v>26</v>
       </c>
-      <c r="B10" s="5"/>
-      <c r="C10" s="5"/>
-      <c r="D10" s="5"/>
-      <c r="E10" s="5"/>
+      <c r="B10" s="6"/>
+      <c r="C10" s="6"/>
+      <c r="D10" s="6"/>
+      <c r="E10" s="6"/>
     </row>
     <row r="11" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A11" t="s">
         <v>4</v>
       </c>
-      <c r="B11" s="1" t="s">
+      <c r="B11" s="2" t="s">
         <v>23</v>
       </c>
-      <c r="C11" t="s">
+      <c r="C11" s="1" t="s">
         <v>25</v>
       </c>
       <c r="D11">
@@ -701,8 +702,9 @@
   </mergeCells>
   <hyperlinks>
     <hyperlink ref="B3" r:id="rId1" display="https://fr.rs-online.com/web/p/accelerometres/8837948/" xr:uid="{74637CB5-1F84-4046-950B-17181AD17975}"/>
+    <hyperlink ref="C11" r:id="rId2" xr:uid="{C16BDE7F-7331-4D5D-8E90-E9BFDD5027EA}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" r:id="rId2"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId3"/>
 </worksheet>
 </file>